--- a/TooManyVillian/Assets/Scripts/ScriptableObjects/DB.xlsx
+++ b/TooManyVillian/Assets/Scripts/ScriptableObjects/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghdwl\Documents\GitHub\Project_Villian\TooManyVillian\Assets\Scripts\ScriptableObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F5DA0-033D-4F62-AE13-E3125933EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB079CCC-BE29-43F8-BD9A-5F6EA593C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1FC4E6C-B150-4CEA-BA4E-8C05134CA3E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="114">
   <si>
     <t>Range_Escape</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NightVil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vil_Rarity</t>
   </si>
   <si>
@@ -147,21 +143,9 @@
     <t>Spear</t>
   </si>
   <si>
-    <t>Mad_Scientist</t>
-  </si>
-  <si>
-    <t>NightVil</t>
-  </si>
-  <si>
     <t>LongSword</t>
   </si>
   <si>
-    <t>Soldier</t>
-  </si>
-  <si>
-    <t>Bat</t>
-  </si>
-  <si>
     <t>Rare</t>
   </si>
   <si>
@@ -174,24 +158,9 @@
     <t>Gun</t>
   </si>
   <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>Saibi</t>
-  </si>
-  <si>
     <t>Club</t>
   </si>
   <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Polifessor</t>
-  </si>
-  <si>
     <t>엠쥐</t>
   </si>
   <si>
@@ -201,18 +170,12 @@
     <t>거위</t>
   </si>
   <si>
-    <t>Lovers</t>
-  </si>
-  <si>
     <t>지위</t>
   </si>
   <si>
     <t>학위</t>
   </si>
   <si>
-    <t>Confusion</t>
-  </si>
-  <si>
     <t>시장</t>
   </si>
   <si>
@@ -226,9 +189,6 @@
   </si>
   <si>
     <t>애플</t>
-  </si>
-  <si>
-    <t>Wolf</t>
   </si>
   <si>
     <t>파인애플</t>
@@ -388,63 +348,50 @@
     <t>시너지가 3개 이상 활성 시, 모든 유닛의 능력이 50% 감소합니다.</t>
   </si>
   <si>
-    <t>Mad_Scientist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark_Gem</t>
-  </si>
-  <si>
-    <t>Dark_Gem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Club</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dark_Gem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lovers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polifessor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lovers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>잉꼬</t>
+  </si>
+  <si>
+    <t>폴리페서</t>
+  </si>
+  <si>
+    <t>빌린이</t>
+  </si>
+  <si>
+    <t>관심병</t>
+  </si>
+  <si>
+    <t>사이비</t>
+  </si>
+  <si>
+    <t>어둠의 자식</t>
+  </si>
+  <si>
+    <t>열등감</t>
+  </si>
+  <si>
+    <t>비린이</t>
+  </si>
+  <si>
+    <t>고독한 늑대</t>
+  </si>
+  <si>
+    <t>비질란테</t>
+  </si>
+  <si>
+    <t>어둠</t>
+  </si>
+  <si>
+    <t>통제광</t>
+  </si>
+  <si>
+    <t>단결</t>
+  </si>
+  <si>
+    <t>분탕</t>
   </si>
 </sst>
 </file>
@@ -873,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3B39E-124D-4EA1-9F25-AB69EAF420BD}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -918,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -939,221 +886,219 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>250</v>
+      </c>
+      <c r="L2" s="2">
+        <v>300</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
         <v>8</v>
-      </c>
-      <c r="F2" s="7">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="7">
-        <v>200</v>
-      </c>
-      <c r="L2" s="7">
-        <v>250</v>
-      </c>
-      <c r="M2" s="7">
-        <v>20</v>
-      </c>
-      <c r="N2" s="7">
-        <v>50</v>
-      </c>
-      <c r="O2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L3" s="2">
         <v>300</v>
       </c>
       <c r="M3" s="2">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2">
+        <v>50</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>350</v>
+      </c>
+      <c r="L4" s="2">
+        <v>450</v>
+      </c>
+      <c r="M4" s="2">
+        <v>200</v>
+      </c>
+      <c r="N4" s="2">
+        <v>300</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="N3" s="2">
-        <v>30</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="7">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="7">
-        <v>300</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>550</v>
+      </c>
+      <c r="L5" s="2">
+        <v>600</v>
+      </c>
+      <c r="M5" s="2">
         <v>400</v>
       </c>
-      <c r="M4" s="7">
-        <v>200</v>
-      </c>
-      <c r="N4" s="7">
-        <v>250</v>
-      </c>
-      <c r="O4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="N5" s="2">
+        <v>500</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2">
-        <v>200</v>
-      </c>
-      <c r="L5" s="2">
-        <v>300</v>
-      </c>
-      <c r="M5" s="2">
-        <v>20</v>
-      </c>
-      <c r="N5" s="2">
-        <v>50</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -1162,568 +1107,562 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K6" s="2">
+        <v>200</v>
+      </c>
+      <c r="L6" s="2">
+        <v>300</v>
+      </c>
+      <c r="M6" s="2">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2">
+        <v>100</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2">
+        <v>300</v>
+      </c>
+      <c r="L7" s="2">
+        <v>400</v>
+      </c>
+      <c r="M7" s="2">
+        <v>200</v>
+      </c>
+      <c r="N7" s="2">
+        <v>300</v>
+      </c>
+      <c r="O7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2">
+        <v>350</v>
+      </c>
+      <c r="L8" s="2">
+        <v>450</v>
+      </c>
+      <c r="M8" s="2">
+        <v>250</v>
+      </c>
+      <c r="N8" s="2">
+        <v>300</v>
+      </c>
+      <c r="O8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2">
+        <v>300</v>
+      </c>
+      <c r="L9" s="2">
+        <v>450</v>
+      </c>
+      <c r="M9" s="2">
+        <v>200</v>
+      </c>
+      <c r="N9" s="2">
+        <v>250</v>
+      </c>
+      <c r="O9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2">
+        <v>250</v>
+      </c>
+      <c r="L10" s="2">
+        <v>300</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100</v>
+      </c>
+      <c r="N10" s="2">
+        <v>100</v>
+      </c>
+      <c r="O10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2">
+        <v>200</v>
+      </c>
+      <c r="L11" s="2">
+        <v>250</v>
+      </c>
+      <c r="M11" s="2">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2">
+        <v>300</v>
+      </c>
+      <c r="O11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2">
+        <v>300</v>
+      </c>
+      <c r="L12" s="2">
+        <v>450</v>
+      </c>
+      <c r="M12" s="2">
+        <v>200</v>
+      </c>
+      <c r="N12" s="2">
+        <v>600</v>
+      </c>
+      <c r="O12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="2">
         <v>500</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L13" s="2">
         <v>650</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M13" s="2">
         <v>400</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N13" s="2">
         <v>600</v>
       </c>
-      <c r="O6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="O13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2">
+        <v>250</v>
+      </c>
+      <c r="L14" s="2">
+        <v>300</v>
+      </c>
+      <c r="M14" s="2">
+        <v>100</v>
+      </c>
+      <c r="N14" s="2">
+        <v>100</v>
+      </c>
+      <c r="O14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2">
+        <v>200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>250</v>
+      </c>
+      <c r="M15" s="2">
+        <v>100</v>
+      </c>
+      <c r="N15" s="2">
+        <v>300</v>
+      </c>
+      <c r="O15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2">
+        <v>300</v>
+      </c>
+      <c r="L16" s="2">
+        <v>450</v>
+      </c>
+      <c r="M16" s="2">
+        <v>200</v>
+      </c>
+      <c r="N16" s="2">
+        <v>600</v>
+      </c>
+      <c r="O16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2">
         <v>4</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="7">
-        <v>200</v>
-      </c>
-      <c r="L7" s="7">
-        <v>250</v>
-      </c>
-      <c r="M7" s="7">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7">
-        <v>100</v>
-      </c>
-      <c r="O7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7">
-        <v>200</v>
-      </c>
-      <c r="L8" s="7">
-        <v>300</v>
-      </c>
-      <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>60</v>
-      </c>
-      <c r="O8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2">
-        <v>200</v>
-      </c>
-      <c r="L9" s="2">
-        <v>250</v>
-      </c>
-      <c r="M9" s="2">
-        <v>100</v>
-      </c>
-      <c r="N9" s="2">
-        <v>300</v>
-      </c>
-      <c r="O9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="7">
-        <v>300</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K17" s="2">
+        <v>500</v>
+      </c>
+      <c r="L17" s="2">
+        <v>650</v>
+      </c>
+      <c r="M17" s="2">
         <v>400</v>
       </c>
-      <c r="M10" s="7">
-        <v>200</v>
-      </c>
-      <c r="N10" s="7">
-        <v>300</v>
-      </c>
-      <c r="O10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="7">
-        <v>300</v>
-      </c>
-      <c r="L11" s="7">
-        <v>400</v>
-      </c>
-      <c r="M11" s="7">
-        <v>250</v>
-      </c>
-      <c r="N11" s="7">
-        <v>300</v>
-      </c>
-      <c r="O11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="7">
-        <v>200</v>
-      </c>
-      <c r="L12" s="7">
-        <v>300</v>
-      </c>
-      <c r="M12" s="7">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7">
-        <v>70</v>
-      </c>
-      <c r="O12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="7">
-        <v>500</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="N17" s="2">
         <v>600</v>
-      </c>
-      <c r="M13" s="7">
-        <v>666</v>
-      </c>
-      <c r="N13" s="7">
-        <v>750</v>
-      </c>
-      <c r="O13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="7">
-        <v>250</v>
-      </c>
-      <c r="L14" s="7">
-        <v>300</v>
-      </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7">
-        <v>80</v>
-      </c>
-      <c r="O14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="7">
-        <v>300</v>
-      </c>
-      <c r="L15" s="7">
-        <v>400</v>
-      </c>
-      <c r="M15" s="7">
-        <v>200</v>
-      </c>
-      <c r="N15" s="7">
-        <v>300</v>
-      </c>
-      <c r="O15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="7">
-        <v>400</v>
-      </c>
-      <c r="L16" s="7">
-        <v>450</v>
-      </c>
-      <c r="M16" s="7">
-        <v>250</v>
-      </c>
-      <c r="N16" s="7">
-        <v>300</v>
-      </c>
-      <c r="O16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="7">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7">
-        <v>300</v>
-      </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>40</v>
       </c>
       <c r="O17" s="4" t="b">
         <v>0</v>
@@ -1737,41 +1676,41 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E18" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
-        <v>666</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="O18" s="4" t="b">
         <v>0</v>
@@ -1785,43 +1724,41 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="7">
-        <v>6</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K19" s="7">
+        <v>300</v>
+      </c>
+      <c r="L19" s="7">
+        <v>400</v>
+      </c>
+      <c r="M19" s="7">
         <v>200</v>
       </c>
-      <c r="L19" s="7">
-        <v>300</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
       <c r="N19" s="7">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="O19" s="4" t="b">
         <v>0</v>
@@ -1835,43 +1772,41 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="7">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N20" s="7">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="O20" s="4" t="b">
         <v>0</v>
@@ -1885,43 +1820,43 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E21" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I21" s="7">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K21" s="7">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M21" s="7">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N21" s="7">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="O21" s="4" t="b">
         <v>0</v>
@@ -1934,42 +1869,42 @@
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="7">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="2">
-        <v>350</v>
-      </c>
-      <c r="L22" s="2">
-        <v>450</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="I22" s="7">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="7">
         <v>250</v>
       </c>
-      <c r="N22" s="2">
-        <v>300</v>
+      <c r="L22" s="7">
+        <v>300</v>
+      </c>
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>70</v>
       </c>
       <c r="O22" s="4" t="b">
         <v>0</v>
@@ -1982,42 +1917,44 @@
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="2">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="2">
+        <v>38</v>
+      </c>
+      <c r="K23" s="7">
         <v>250</v>
       </c>
-      <c r="L23" s="2">
-        <v>300</v>
-      </c>
-      <c r="M23" s="2">
-        <v>100</v>
-      </c>
-      <c r="N23" s="2">
-        <v>100</v>
+      <c r="L23" s="7">
+        <v>300</v>
+      </c>
+      <c r="M23" s="7">
+        <v>30</v>
+      </c>
+      <c r="N23" s="7">
+        <v>60</v>
       </c>
       <c r="O23" s="4" t="b">
         <v>0</v>
@@ -2031,37 +1968,35 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="7">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="7">
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K24" s="7">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M24" s="7">
         <v>250</v>
@@ -2081,43 +2016,41 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7">
         <v>5</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>37</v>
+      <c r="J25" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K25" s="7">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L25" s="7">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M25" s="7">
-        <v>200</v>
+        <v>666</v>
       </c>
       <c r="N25" s="7">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="O25" s="4" t="b">
         <v>0</v>
@@ -2130,42 +2063,42 @@
       <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="2">
-        <v>300</v>
-      </c>
-      <c r="L26" s="2">
-        <v>450</v>
-      </c>
-      <c r="M26" s="2">
-        <v>200</v>
-      </c>
-      <c r="N26" s="2">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="7">
         <v>250</v>
+      </c>
+      <c r="L26" s="7">
+        <v>300</v>
+      </c>
+      <c r="M26" s="7">
+        <v>10</v>
+      </c>
+      <c r="N26" s="7">
+        <v>80</v>
       </c>
       <c r="O26" s="4" t="b">
         <v>0</v>
@@ -2179,13 +2112,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E27" s="7">
         <v>1</v>
@@ -2194,26 +2127,28 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I27" s="7">
-        <v>5</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K27" s="7">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L27" s="7">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M27" s="7">
-        <v>666</v>
+        <v>200</v>
       </c>
       <c r="N27" s="7">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="O27" s="4" t="b">
         <v>0</v>
@@ -2227,43 +2162,43 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E28" s="7">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="7">
         <v>8</v>
       </c>
-      <c r="F28" s="7">
-        <v>4</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K28" s="7">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N28" s="7">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="O28" s="4" t="b">
         <v>0</v>
@@ -2277,35 +2212,35 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="7">
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K29" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L29" s="7">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -2325,41 +2260,43 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E30" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7">
         <v>4</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="7">
-        <v>8</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>37</v>
+      <c r="J30" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K30" s="7">
+        <v>200</v>
+      </c>
+      <c r="L30" s="7">
         <v>250</v>
-      </c>
-      <c r="L30" s="7">
-        <v>300</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O30" s="4" t="b">
         <v>0</v>
@@ -2372,44 +2309,42 @@
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7">
+        <v>7</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="7">
+        <v>200</v>
+      </c>
+      <c r="L31" s="7">
+        <v>300</v>
+      </c>
+      <c r="M31" s="7">
+        <v>20</v>
+      </c>
+      <c r="N31" s="7">
         <v>40</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="2">
-        <v>300</v>
-      </c>
-      <c r="L31" s="2">
-        <v>450</v>
-      </c>
-      <c r="M31" s="2">
-        <v>200</v>
-      </c>
-      <c r="N31" s="2">
-        <v>600</v>
       </c>
       <c r="O31" s="4" t="b">
         <v>0</v>
@@ -2422,44 +2357,42 @@
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
+        <v>39</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="2">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="2">
+        <v>104</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7">
+        <v>6</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="7">
         <v>250</v>
       </c>
-      <c r="L32" s="2">
-        <v>300</v>
-      </c>
-      <c r="M32" s="2">
-        <v>100</v>
-      </c>
-      <c r="N32" s="2">
-        <v>100</v>
+      <c r="L32" s="7">
+        <v>300</v>
+      </c>
+      <c r="M32" s="7">
+        <v>40</v>
+      </c>
+      <c r="N32" s="7">
+        <v>90</v>
       </c>
       <c r="O32" s="4" t="b">
         <v>0</v>
@@ -2472,42 +2405,42 @@
       <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>21</v>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="2">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7">
         <v>6</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="2">
-        <v>200</v>
-      </c>
-      <c r="L33" s="2">
-        <v>250</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="F33" s="7">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N33" s="2">
-        <v>300</v>
+      <c r="H33" s="3"/>
+      <c r="I33" s="7">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="7">
+        <v>550</v>
+      </c>
+      <c r="L33" s="7">
+        <v>650</v>
+      </c>
+      <c r="M33" s="7">
+        <v>700</v>
+      </c>
+      <c r="N33" s="7">
+        <v>800</v>
       </c>
       <c r="O33" s="4" t="b">
         <v>0</v>
@@ -2521,43 +2454,43 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="7">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="7">
+        <v>200</v>
+      </c>
+      <c r="L34" s="7">
+        <v>300</v>
+      </c>
+      <c r="M34" s="7">
         <v>10</v>
       </c>
-      <c r="F34" s="7">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="7">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="7">
-        <v>400</v>
-      </c>
-      <c r="L34" s="7">
-        <v>450</v>
-      </c>
-      <c r="M34" s="7">
-        <v>200</v>
-      </c>
       <c r="N34" s="7">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="O34" s="4" t="b">
         <v>0</v>
@@ -2571,43 +2504,43 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="I35" s="7">
         <v>1</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="7">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L35" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N35" s="7">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="O35" s="4" t="b">
         <v>0</v>
@@ -2620,44 +2553,42 @@
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
+      <c r="B36" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2">
-        <v>6</v>
-      </c>
-      <c r="F36" s="2">
+        <v>38</v>
+      </c>
+      <c r="E36" s="7">
+        <v>8</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7">
         <v>3</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="2">
-        <v>4</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="2">
-        <v>500</v>
-      </c>
-      <c r="L36" s="2">
-        <v>650</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="J36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="7">
+        <v>350</v>
+      </c>
+      <c r="L36" s="7">
         <v>400</v>
       </c>
-      <c r="N36" s="2">
-        <v>600</v>
+      <c r="M36" s="7">
+        <v>200</v>
+      </c>
+      <c r="N36" s="7">
+        <v>300</v>
       </c>
       <c r="O36" s="4" t="b">
         <v>0</v>
@@ -2670,44 +2601,44 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="2">
+        <v>34</v>
+      </c>
+      <c r="E37" s="7">
         <v>10</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="7">
         <v>5</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I37" s="7">
+        <v>8</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" s="2">
-        <v>550</v>
-      </c>
-      <c r="L37" s="2">
-        <v>600</v>
-      </c>
-      <c r="M37" s="2">
-        <v>400</v>
-      </c>
-      <c r="N37" s="2">
-        <v>500</v>
+        <v>34</v>
+      </c>
+      <c r="K37" s="7">
+        <v>350</v>
+      </c>
+      <c r="L37" s="7">
+        <v>450</v>
+      </c>
+      <c r="M37" s="7">
+        <v>250</v>
+      </c>
+      <c r="N37" s="7">
+        <v>300</v>
       </c>
       <c r="O37" s="4" t="b">
         <v>0</v>
@@ -2721,41 +2652,41 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E38" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F38" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="7">
-        <v>3</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K38" s="7">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L38" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M38" s="7">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N38" s="7">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="O38" s="4" t="b">
         <v>0</v>
@@ -2768,42 +2699,44 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
+      <c r="B39" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="2">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="7">
+        <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="2">
-        <v>350</v>
-      </c>
-      <c r="L39" s="2">
-        <v>450</v>
-      </c>
-      <c r="M39" s="2">
-        <v>200</v>
-      </c>
-      <c r="N39" s="2">
-        <v>300</v>
+        <v>36</v>
+      </c>
+      <c r="K39" s="7">
+        <v>250</v>
+      </c>
+      <c r="L39" s="7">
+        <v>300</v>
+      </c>
+      <c r="M39" s="7">
+        <v>20</v>
+      </c>
+      <c r="N39" s="7">
+        <v>80</v>
       </c>
       <c r="O39" s="4" t="b">
         <v>0</v>
@@ -2817,41 +2750,43 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="I40" s="7">
-        <v>7</v>
-      </c>
-      <c r="J40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K40" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L40" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M40" s="7">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N40" s="7">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="O40" s="4" t="b">
         <v>0</v>
@@ -2865,43 +2800,41 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E41" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H41" s="5"/>
       <c r="I41" s="7">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K41" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L41" s="7">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M41" s="7">
-        <v>10</v>
+        <v>666</v>
       </c>
       <c r="N41" s="7">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="O41" s="4" t="b">
         <v>0</v>
@@ -2915,43 +2848,41 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E42" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H42" s="5"/>
       <c r="I42" s="7">
-        <v>3</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K42" s="7">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L42" s="7">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M42" s="7">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="N42" s="7">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="O42" s="4" t="b">
         <v>0</v>
@@ -2965,29 +2896,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="5"/>
+      <c r="G43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="I43" s="7">
-        <v>6</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K43" s="7">
         <v>250</v>
@@ -2996,10 +2929,10 @@
         <v>300</v>
       </c>
       <c r="M43" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N43" s="7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O43" s="4" t="b">
         <v>0</v>
@@ -3012,42 +2945,42 @@
       <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>26</v>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="7">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="2">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K44" s="2">
-        <v>300</v>
-      </c>
-      <c r="L44" s="2">
-        <v>450</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="I44" s="7">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="7">
+        <v>300</v>
+      </c>
+      <c r="L44" s="7">
+        <v>400</v>
+      </c>
+      <c r="M44" s="7">
         <v>200</v>
       </c>
-      <c r="N44" s="2">
-        <v>600</v>
+      <c r="N44" s="7">
+        <v>250</v>
       </c>
       <c r="O44" s="4" t="b">
         <v>0</v>
@@ -3061,35 +2994,37 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E45" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I45" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K45" s="7">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L45" s="7">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M45" s="7">
         <v>200</v>
@@ -3109,41 +3044,43 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E46" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F46" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I46" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K46" s="7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L46" s="7">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M46" s="7">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="N46" s="7">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="O46" s="4" t="b">
         <v>0</v>
@@ -3156,42 +3093,42 @@
       <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
+      <c r="B47" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2">
-        <v>6</v>
-      </c>
-      <c r="F47" s="2">
-        <v>3</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>44</v>
+      <c r="E47" s="7">
+        <v>2</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="2">
-        <v>8</v>
+      <c r="I47" s="7">
+        <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47" s="2">
+        <v>33</v>
+      </c>
+      <c r="K47" s="7">
+        <v>300</v>
+      </c>
+      <c r="L47" s="7">
+        <v>400</v>
+      </c>
+      <c r="M47" s="7">
         <v>200</v>
       </c>
-      <c r="L47" s="2">
-        <v>300</v>
-      </c>
-      <c r="M47" s="2">
-        <v>40</v>
-      </c>
-      <c r="N47" s="2">
-        <v>100</v>
+      <c r="N47" s="7">
+        <v>300</v>
       </c>
       <c r="O47" s="4" t="b">
         <v>0</v>
@@ -3204,43 +3141,43 @@
       <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
+      <c r="B48" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="2">
-        <v>6</v>
-      </c>
-      <c r="F48" s="2">
+        <v>38</v>
+      </c>
+      <c r="E48" s="7">
+        <v>8</v>
+      </c>
+      <c r="F48" s="7">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="7">
         <v>3</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I48" s="2">
-        <v>2</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="2">
-        <v>300</v>
-      </c>
-      <c r="L48" s="2">
-        <v>400</v>
-      </c>
-      <c r="M48" s="2">
-        <v>200</v>
-      </c>
-      <c r="N48" s="2">
+        <v>38</v>
+      </c>
+      <c r="K48" s="7">
+        <v>350</v>
+      </c>
+      <c r="L48" s="7">
+        <v>450</v>
+      </c>
+      <c r="M48" s="7">
+        <v>250</v>
+      </c>
+      <c r="N48" s="7">
         <v>300</v>
       </c>
       <c r="O48" s="4" t="b">
@@ -3255,43 +3192,41 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E49" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F49" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H49" s="5"/>
       <c r="I49" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K49" s="7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L49" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M49" s="7">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="N49" s="7">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="O49" s="4" t="b">
         <v>0</v>
@@ -3305,13 +3240,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E50" s="7">
         <v>1</v>
@@ -3320,28 +3255,26 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="7">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K50" s="7">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L50" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M50" s="7">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N50" s="7">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="O50" s="4" t="b">
         <v>0</v>
@@ -3355,43 +3288,41 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E51" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="7">
-        <v>6</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K51" s="7">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="L51" s="7">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M51" s="7">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="N51" s="7">
-        <v>750</v>
+        <v>40</v>
       </c>
       <c r="O51" s="4" t="b">
         <v>0</v>
@@ -3405,41 +3336,41 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E52" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K52" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L52" s="7">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M52" s="7">
-        <v>200</v>
+        <v>666</v>
       </c>
       <c r="N52" s="7">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="O52" s="4" t="b">
         <v>0</v>
@@ -3453,43 +3384,41 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E53" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K53" s="7">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L53" s="7">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M53" s="7">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="N53" s="7">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="O53" s="4" t="b">
         <v>0</v>
@@ -3513,119 +3442,122 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3649,40 +3581,40 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7">
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3697,7 +3629,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="7">
@@ -3707,14 +3639,14 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
